--- a/sputnik/personal/uch/uch312.xlsx
+++ b/sputnik/personal/uch/uch312.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -49,13 +46,19 @@
   </si>
   <si>
     <t>Оплачена арендная плата за зем.уч. За 2019г.</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №312</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +73,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -86,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -122,32 +133,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -185,15 +170,17 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +492,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -519,10 +506,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12"/>
+      <c r="A2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -531,11 +520,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>10397.299999999999</v>
@@ -543,11 +532,11 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>43579</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6">
@@ -555,11 +544,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <v>43579</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="8">
         <v>2069.06</v>
@@ -567,11 +556,11 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>43579</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7">
@@ -579,11 +568,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>43466</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="10">
         <v>830.4</v>
@@ -591,11 +580,11 @@
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>43586</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="10">
         <v>9610.15</v>
@@ -603,11 +592,11 @@
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="12">
         <v>43738</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10">
@@ -615,11 +604,11 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <v>43738</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="10">
@@ -651,9 +640,6 @@
       <c r="D14" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch312.xlsx
+++ b/sputnik/personal/uch/uch312.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №312</t>
+  </si>
+  <si>
+    <t>Начислен взнос 2020/2021</t>
   </si>
 </sst>
 </file>
@@ -148,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -182,6 +185,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -492,7 +496,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -616,9 +620,15 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="15">
+        <v>43952</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10">
+        <v>11227.7</v>
+      </c>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch312.xlsx
+++ b/sputnik/personal/uch/uch312.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Начислен взнос 2020/2021</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -632,10 +635,16 @@
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="15">
+        <v>44104</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10">
+        <v>11227.7</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>

--- a/sputnik/personal/uch/uch312.xlsx
+++ b/sputnik/personal/uch/uch312.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Оплата членского взноса</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислена компенсация арендной платы за зем.уч. с 01.01.21 по 31.12.21</t>
   </si>
 </sst>
 </file>
@@ -499,7 +505,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -647,15 +653,27 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="15">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="10">
+        <v>11530.45</v>
+      </c>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="15">
+        <v>44197</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="10">
+        <v>426.62</v>
+      </c>
       <c r="D14" s="10"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch312.xlsx
+++ b/sputnik/personal/uch/uch312.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Начислена компенсация арендной платы за зем.уч. с 01.01.21 по 31.12.21</t>
+  </si>
+  <si>
+    <t>Оплачена компенсация арендной платы за зем.уч. с 01.01.21 по 31.12.21</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -195,6 +198,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -502,10 +508,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -675,6 +681,48 @@
         <v>426.62</v>
       </c>
       <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>44410</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10">
+        <v>11530.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>44410</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10">
+        <v>426.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch312.xlsx
+++ b/sputnik/personal/uch/uch312.xlsx
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -163,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -181,8 +188,6 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -201,6 +206,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -511,7 +521,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A5" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -525,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -539,7 +549,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="9">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -551,7 +561,7 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="10">
         <v>43579</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -563,166 +573,166 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="15">
         <v>43579</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="17">
         <v>2069.06</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="15">
         <v>43579</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7">
+      <c r="C6" s="17"/>
+      <c r="D6" s="16">
         <v>2069.06</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>43466</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>830.4</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>43586</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>9610.15</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="10">
         <v>43738</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10">
+      <c r="C9" s="7"/>
+      <c r="D9" s="8">
         <v>830.4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="10">
         <v>43738</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8">
         <v>9610.15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <v>43952</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>11227.7</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <v>44104</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
         <v>11227.7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>44317</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>11530.45</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <v>44197</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>426.62</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <v>44410</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8">
         <v>11530.45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>44410</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8">
         <v>426.62</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
